--- a/src/书源API.xlsx
+++ b/src/书源API.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Reader\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6609353-1CFB-4024-BDBF-D200AC1D354D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02EEE161-6ECB-452E-96F4-67B20194F769}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5025" yWindow="495" windowWidth="21600" windowHeight="14355" xr2:uid="{29FE6231-7324-41DD-A1FB-7ECDEAC05912}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{29FE6231-7324-41DD-A1FB-7ECDEAC05912}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="100">
   <si>
     <t>API</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,10 +40,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http(s)://api05iye5.zhuishushenqi.com [ping 25ms]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.stoneread.com [ping 1ms]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -69,9 +65,6 @@
   </si>
   <si>
     <t>/sub-categories</t>
-  </si>
-  <si>
-    <t>/cats/lv2</t>
   </si>
   <si>
     <t>图一</t>
@@ -1422,6 +1415,41 @@
   </si>
   <si>
     <t>接口来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/index/autocomplate?val=一卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "status": 1,
+    "result": [
+        "卡徒",
+        "我在漫威无限抽卡",
+        "哈利波特与阿兹卡班的囚徒",
+        "星卡大师（重生）",
+        "海边的卡夫卡",
+        "神级卡徒"
+    ]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/index/search?kw=一卡&amp;type=all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>html 需解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/cats/lv2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http(s)://api05iye5.zhuishushenqi.com [ping 25ms]
+http://statics.zhuishushenqi.com 图片服务器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1486,7 +1514,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1498,6 +1526,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1919,23 +1951,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7826F65A-87E3-45E4-AF09-166D602A8F4F}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.25" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="106" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="137.625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="31.625" customWidth="1"/>
     <col min="11" max="11" width="35.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="255.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1945,370 +1979,382 @@
         <v>2</v>
       </c>
       <c r="K1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="28.5">
+      <c r="F2" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="77.25" customHeight="1">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="77.25" customHeight="1">
-      <c r="A6" t="s">
+      <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" ht="53.25" customHeight="1">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="2" t="s">
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" ht="53.25" customHeight="1">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="146.25" customHeight="1">
-      <c r="A9" t="s">
+    <row r="9" spans="1:12" ht="146.25" customHeight="1">
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C9" t="s">
+      <c r="H9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" ht="50.25" customHeight="1">
+      <c r="A10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>21</v>
       </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" ht="50.25" customHeight="1">
-      <c r="A10" t="s">
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="H10" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="108.75" customHeight="1">
-      <c r="A11" t="s">
-        <v>29</v>
+    <row r="11" spans="1:12" ht="108.75" customHeight="1">
+      <c r="A11" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="G11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" t="s">
-        <v>31</v>
+    <row r="12" spans="1:12">
+      <c r="A12" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="61.5" customHeight="1">
-      <c r="A13" t="s">
+    <row r="13" spans="1:12" ht="61.5" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C13" t="s">
+      <c r="G13" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="H13" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:11" ht="63.75" customHeight="1">
-      <c r="A14" t="s">
+    <row r="14" spans="1:12" ht="63.75" customHeight="1">
+      <c r="A14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="H14" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:11" ht="55.5" customHeight="1">
-      <c r="A15" t="s">
-        <v>46</v>
+    <row r="15" spans="1:12" ht="55.5" customHeight="1">
+      <c r="A15" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" t="s">
         <v>45</v>
       </c>
-      <c r="G15" t="s">
-        <v>47</v>
-      </c>
       <c r="H15" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:11" ht="63" customHeight="1">
-      <c r="A16" t="s">
+    <row r="16" spans="1:12" ht="63" customHeight="1">
+      <c r="A16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="C16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" t="s">
-        <v>52</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" ht="71.25" customHeight="1">
-      <c r="A17" t="s">
-        <v>57</v>
+      <c r="K16" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="71.25" customHeight="1">
+      <c r="A17" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="F17" t="s">
-        <v>54</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10" ht="84.75" customHeight="1">
-      <c r="A18" t="s">
+    <row r="18" spans="1:12" ht="84.75" customHeight="1">
+      <c r="A18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="C18" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" t="s">
-        <v>60</v>
-      </c>
-      <c r="G18" t="s">
-        <v>61</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10" ht="73.5" customHeight="1">
-      <c r="A19" t="s">
-        <v>63</v>
+    <row r="19" spans="1:12" ht="73.5" customHeight="1">
+      <c r="A19" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="C19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="H19" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" ht="51" customHeight="1">
-      <c r="A20" t="s">
-        <v>66</v>
+    <row r="20" spans="1:12" ht="51" customHeight="1">
+      <c r="A20" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="C20" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H20" s="2" t="s">
+    </row>
+    <row r="21" spans="1:12" ht="63" customHeight="1">
+      <c r="A21" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="63" customHeight="1">
-      <c r="A21" t="s">
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C21" t="s">
+    </row>
+    <row r="22" spans="1:12" ht="59.25" customHeight="1">
+      <c r="A22" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" t="s">
         <v>70</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="59.25" customHeight="1">
-      <c r="A22" t="s">
+      <c r="H22" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="60" customHeight="1">
+      <c r="A23" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" t="s">
         <v>73</v>
       </c>
-      <c r="C22" t="s">
-        <v>72</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="60" customHeight="1">
-      <c r="A23" t="s">
+      <c r="H23" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="59.25" customHeight="1">
+      <c r="A24" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" t="s">
         <v>76</v>
       </c>
-      <c r="C23" t="s">
-        <v>75</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="59.25" customHeight="1">
-      <c r="A24" t="s">
+      <c r="F24" t="s">
         <v>79</v>
-      </c>
-      <c r="C24" t="s">
-        <v>78</v>
-      </c>
-      <c r="F24" t="s">
-        <v>81</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="56.25" customHeight="1">
+      <c r="A25" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="56.25" customHeight="1">
-      <c r="A25" t="s">
-        <v>82</v>
-      </c>
       <c r="C25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="56.25" customHeight="1">
+      <c r="A26" s="4" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="56.25" customHeight="1">
-      <c r="A26" t="s">
+      <c r="C26" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" t="s">
         <v>86</v>
       </c>
-      <c r="C26" t="s">
+      <c r="H26" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F26" t="s">
+      <c r="K26" t="s">
+        <v>94</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="63.75" customHeight="1">
+      <c r="A27" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F27" t="s">
         <v>88</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A27" t="s">
+      <c r="G27" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="F27" t="s">
-        <v>90</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2335,15 +2381,16 @@
   <sheetData>
     <row r="54" spans="4:12">
       <c r="D54" t="s">
+        <v>10</v>
+      </c>
+      <c r="L54" t="s">
         <v>12</v>
-      </c>
-      <c r="L54" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>